--- a/docs/shrcore/shr-core-Media.xlsx
+++ b/docs/shrcore/shr-core-Media.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="327">
   <si>
     <t>Path</t>
   </si>
@@ -468,6 +468,16 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>partof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -478,14 +488,73 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
-    <t>partof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PartOf-extension]]} {[]}
+    <t>Media.extension.id</t>
+  </si>
+  <si>
+    <t>Media.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Media.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Media.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-status</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>statementdatetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatementDateTime-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The point in time when the statement was created.</t>
+  </si>
+  <si>
+    <t>devicename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DeviceName-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The name of the device.</t>
   </si>
   <si>
     <t>Media.modifierExtension</t>
@@ -557,9 +626,6 @@
     <t>Whether the media is a photo (still image), an audio recording, or a video recording.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Whether the media is a photo, video, or audio</t>
   </si>
   <si>
@@ -573,10 +639,6 @@
   </si>
   <si>
     <t>Media.subtype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
   </si>
   <si>
     <t>The type of acquisition equipment/process</t>
@@ -644,7 +706,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -1151,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP45"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1160,8 +1222,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.3671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.3984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3061,7 +3123,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>44</v>
@@ -3293,7 +3355,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>51</v>
@@ -3402,36 +3464,34 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3480,13 +3540,13 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3515,7 +3575,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3526,7 +3586,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3535,20 +3595,18 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3596,11 +3654,15 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" s="2"/>
+      <c r="AE21" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG21" s="2"/>
+      <c r="AG21" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3608,13 +3670,13 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>42</v>
@@ -3628,18 +3690,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3648,27 +3710,25 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>42</v>
@@ -3709,11 +3769,15 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="AF22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG22" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3721,7 +3785,7 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>42</v>
@@ -3741,7 +3805,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3761,16 +3825,16 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3797,13 +3861,11 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3820,11 +3882,15 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3832,10 +3898,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3852,9 +3918,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3872,16 +3940,14 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3908,13 +3974,13 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3931,11 +3997,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3943,13 +4013,13 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>42</v>
@@ -3963,9 +4033,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>42</v>
       </c>
@@ -3983,16 +4055,14 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4019,13 +4089,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4042,11 +4112,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4054,10 +4128,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4074,38 +4148,40 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4153,11 +4229,15 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4165,13 +4245,13 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>42</v>
@@ -4185,18 +4265,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4208,20 +4288,18 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4280,13 +4358,13 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>42</v>
@@ -4300,18 +4378,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4323,16 +4401,18 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4391,10 +4471,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4411,7 +4491,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4419,7 +4499,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4434,13 +4514,13 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4467,13 +4547,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4502,13 +4582,13 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>42</v>
@@ -4522,7 +4602,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4533,7 +4613,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4545,17 +4625,15 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4583,10 +4661,10 @@
         <v>108</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
@@ -4615,13 +4693,13 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>42</v>
@@ -4635,7 +4713,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4658,17 +4736,15 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4693,11 +4769,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4726,19 +4804,19 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -4746,7 +4824,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4766,16 +4844,16 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4825,15 +4903,11 @@
       <c r="AD32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE32" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="AE32" s="2"/>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG32" s="2"/>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4841,13 +4915,13 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>217</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>42</v>
@@ -4861,18 +4935,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -4881,21 +4955,23 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4931,26 +5007,22 @@
         <v>42</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4958,10 +5030,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4978,13 +5050,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5000,14 +5070,16 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="K34" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="L34" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5057,15 +5129,11 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5073,10 +5141,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5093,11 +5161,9 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5115,14 +5181,16 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="K35" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5172,15 +5240,11 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5188,13 +5252,13 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>42</v>
@@ -5208,11 +5272,9 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5230,16 +5292,20 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="K36" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5264,13 +5330,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5287,15 +5353,11 @@
       <c r="AD36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5303,10 +5365,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5334,7 +5396,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5346,7 +5408,7 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>250</v>
@@ -5357,9 +5419,7 @@
       <c r="M37" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5383,13 +5443,11 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5418,7 +5476,7 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>42</v>
@@ -5427,18 +5485,18 @@
         <v>42</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5458,23 +5516,19 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>64</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5521,11 +5575,15 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5533,7 +5591,7 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
@@ -5548,23 +5606,23 @@
         <v>42</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>262</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5573,19 +5631,19 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5623,22 +5681,26 @@
         <v>42</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5646,7 +5708,7 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>42</v>
@@ -5655,10 +5717,10 @@
         <v>42</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>42</v>
@@ -5666,9 +5728,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5686,16 +5750,14 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5745,25 +5807,29 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH40" t="s" s="2">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>42</v>
@@ -5777,9 +5843,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5797,16 +5865,14 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5856,25 +5922,29 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH41" t="s" s="2">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>42</v>
@@ -5888,9 +5958,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5899,7 +5971,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5908,21 +5980,19 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -5967,19 +6037,23 @@
       <c r="AD42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH42" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
@@ -5999,7 +6073,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6010,7 +6084,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6022,18 +6096,20 @@
         <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6086,19 +6162,19 @@
       </c>
       <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>42</v>
@@ -6107,12 +6183,12 @@
         <v>42</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>42</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6120,7 +6196,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>51</v>
@@ -6132,21 +6208,23 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6205,7 +6283,7 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>42</v>
@@ -6220,12 +6298,12 @@
         <v>42</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6236,7 +6314,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6245,18 +6323,20 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6316,26 +6396,696 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE46" s="2"/>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" s="2"/>
+      <c r="AH46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE47" s="2"/>
+      <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" s="2"/>
+      <c r="AH47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO45" t="s" s="2">
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
         <v>306</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE48" s="2"/>
+      <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" s="2"/>
+      <c r="AH48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE49" s="2"/>
+      <c r="AF49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG49" s="2"/>
+      <c r="AH49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE50" s="2"/>
+      <c r="AF50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG50" s="2"/>
+      <c r="AH50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE51" s="2"/>
+      <c r="AF51" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG51" s="2"/>
+      <c r="AH51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO45">
+  <autoFilter ref="A1:AO51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6345,7 +7095,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
